--- a/Investment.xlsx
+++ b/Investment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leoni\Desktop\Optimization in Modern Power Systems\Optimization_Code\optimization_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54AED59-DFBF-439D-B4E7-761D104AC889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EF7B8E-FE69-4BED-8EAE-FF62DA4D540E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Investment</t>
-  </si>
-  <si>
     <t>Conventional</t>
   </si>
   <si>
@@ -50,13 +47,16 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>Cost/MW</t>
-  </si>
-  <si>
-    <t>Inv. Cost</t>
-  </si>
-  <si>
-    <t>Inv. Capacity</t>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>$/kW</t>
+  </si>
+  <si>
+    <t>Inv. Cost ($/MW)</t>
+  </si>
+  <si>
+    <t>Max Inv. Capacity (MW)</t>
   </si>
 </sst>
 </file>
@@ -374,21 +374,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -396,44 +398,53 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <f>C2*E2</f>
-        <v>0</v>
+        <f>F2*1000</f>
+        <v>2184000</v>
       </c>
       <c r="C2">
         <v>400</v>
       </c>
+      <c r="F2">
+        <v>2184</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <f>C3*E3</f>
-        <v>0</v>
+        <f>F3*1000</f>
+        <v>828880</v>
       </c>
       <c r="C3">
         <v>250</v>
       </c>
+      <c r="F3">
+        <v>828.88</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <f>C4*E4</f>
-        <v>0</v>
+        <f>F4*1000</f>
+        <v>2974400</v>
       </c>
       <c r="C4">
         <v>150</v>
+      </c>
+      <c r="F4">
+        <v>2974.4</v>
       </c>
     </row>
   </sheetData>

--- a/Investment.xlsx
+++ b/Investment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leoni\Desktop\Optimization in Modern Power Systems\Optimization_Code\optimization_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EF7B8E-FE69-4BED-8EAE-FF62DA4D540E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A74B908-5E23-4F33-A010-236F3BBA4012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,8 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -374,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -388,7 +389,7 @@
     <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -402,7 +403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -417,7 +418,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -431,8 +432,20 @@
       <c r="F3">
         <v>828.88</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J3">
+        <f>B2*C2</f>
+        <v>873600000</v>
+      </c>
+      <c r="K3">
+        <f>B3*C3</f>
+        <v>207220000</v>
+      </c>
+      <c r="L3">
+        <f>B4*C4</f>
+        <v>446160000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -445,6 +458,26 @@
       </c>
       <c r="F4">
         <v>2974.4</v>
+      </c>
+      <c r="K4">
+        <f>K3+L3</f>
+        <v>653380000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J5">
+        <f>J3/K4</f>
+        <v>1.3370473537604457</v>
+      </c>
+      <c r="K5">
+        <f>K4/J3</f>
+        <v>0.74791666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J8" s="1">
+        <f>J3+K4</f>
+        <v>1526980000</v>
       </c>
     </row>
   </sheetData>

--- a/Investment.xlsx
+++ b/Investment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leoni\Desktop\Optimization in Modern Power Systems\Optimization_Code\optimization_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Opti in modern power systems\code\optimization_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A74B908-5E23-4F33-A010-236F3BBA4012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882907C0-29E3-4977-AE3F-301422B164E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -50,13 +50,13 @@
     <t>Technology</t>
   </si>
   <si>
-    <t>$/kW</t>
-  </si>
-  <si>
-    <t>Inv. Cost ($/MW)</t>
-  </si>
-  <si>
-    <t>Max Inv. Capacity (MW)</t>
+    <t>Inv_Cost</t>
+  </si>
+  <si>
+    <t>Max_Capacity</t>
+  </si>
+  <si>
+    <t>Opex</t>
   </si>
 </sst>
 </file>
@@ -97,7 +97,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -375,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -389,96 +389,67 @@
     <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <f>F2*1000</f>
+        <f>D2*1000</f>
         <v>2184000</v>
       </c>
       <c r="C2">
         <v>400</v>
       </c>
-      <c r="F2">
+      <c r="D2">
         <v>2184</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <f>F3*1000</f>
+        <f>D3*1000</f>
         <v>828880</v>
       </c>
       <c r="C3">
         <v>250</v>
       </c>
-      <c r="F3">
+      <c r="D3">
         <v>828.88</v>
       </c>
-      <c r="J3">
-        <f>B2*C2</f>
-        <v>873600000</v>
-      </c>
-      <c r="K3">
-        <f>B3*C3</f>
-        <v>207220000</v>
-      </c>
-      <c r="L3">
-        <f>B4*C4</f>
-        <v>446160000</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <f>F4*1000</f>
+        <f>D4*1000</f>
         <v>2974400</v>
       </c>
       <c r="C4">
         <v>150</v>
       </c>
-      <c r="F4">
+      <c r="D4">
         <v>2974.4</v>
       </c>
-      <c r="K4">
-        <f>K3+L3</f>
-        <v>653380000</v>
-      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="J5">
-        <f>J3/K4</f>
-        <v>1.3370473537604457</v>
-      </c>
-      <c r="K5">
-        <f>K4/J3</f>
-        <v>0.74791666666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="J8" s="1">
-        <f>J3+K4</f>
-        <v>1526980000</v>
-      </c>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Investment.xlsx
+++ b/Investment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leoni\Desktop\Optimization in Modern Power Systems\Optimization_Code\optimization_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Opti in modern power systems\code\optimization_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A74B908-5E23-4F33-A010-236F3BBA4012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D141B9A4-3BC3-4D3D-AD24-FFFC2792081E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -50,13 +50,13 @@
     <t>Technology</t>
   </si>
   <si>
-    <t>$/kW</t>
-  </si>
-  <si>
-    <t>Inv. Cost ($/MW)</t>
-  </si>
-  <si>
-    <t>Max Inv. Capacity (MW)</t>
+    <t>Inv_Cost</t>
+  </si>
+  <si>
+    <t>Max_Capacity</t>
+  </si>
+  <si>
+    <t>opex</t>
   </si>
 </sst>
 </file>
@@ -97,7 +97,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -375,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -389,96 +389,67 @@
     <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <f>F2*1000</f>
+        <f>D2*1000</f>
         <v>2184000</v>
       </c>
       <c r="C2">
         <v>400</v>
       </c>
-      <c r="F2">
+      <c r="D2">
         <v>2184</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <f>F3*1000</f>
+        <f>D3*1000</f>
         <v>828880</v>
       </c>
       <c r="C3">
         <v>250</v>
       </c>
-      <c r="F3">
+      <c r="D3">
         <v>828.88</v>
       </c>
-      <c r="J3">
-        <f>B2*C2</f>
-        <v>873600000</v>
-      </c>
-      <c r="K3">
-        <f>B3*C3</f>
-        <v>207220000</v>
-      </c>
-      <c r="L3">
-        <f>B4*C4</f>
-        <v>446160000</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <f>F4*1000</f>
+        <f>D4*1000</f>
         <v>2974400</v>
       </c>
       <c r="C4">
         <v>150</v>
       </c>
-      <c r="F4">
+      <c r="D4">
         <v>2974.4</v>
       </c>
-      <c r="K4">
-        <f>K3+L3</f>
-        <v>653380000</v>
-      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="J5">
-        <f>J3/K4</f>
-        <v>1.3370473537604457</v>
-      </c>
-      <c r="K5">
-        <f>K4/J3</f>
-        <v>0.74791666666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="J8" s="1">
-        <f>J3+K4</f>
-        <v>1526980000</v>
-      </c>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Investment.xlsx
+++ b/Investment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Opti in modern power systems\code\optimization_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marta\Desktop\Sustainable Energy\OMPS\Project\optimization_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D141B9A4-3BC3-4D3D-AD24-FFFC2792081E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD1B933-AE32-4B43-8FFD-2B9FB142BB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-6405" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <t>Max_Capacity</t>
   </si>
   <si>
-    <t>opex</t>
+    <t>Dollar/kW</t>
   </si>
 </sst>
 </file>
@@ -378,18 +378,19 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -403,7 +404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -418,7 +419,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -433,7 +434,7 @@
         <v>828.88</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -448,7 +449,7 @@
         <v>2974.4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J8" s="1"/>
     </row>
   </sheetData>
